--- a/excel/tiempos_espera_promedio.xlsx
+++ b/excel/tiempos_espera_promedio.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.852838378902228</v>
+        <v>11.85012628150243</v>
       </c>
     </row>
   </sheetData>
